--- a/grubric/PR1-GradingRubric.xlsx
+++ b/grubric/PR1-GradingRubric.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="51200" windowHeight="28800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-456" windowWidth="23256" windowHeight="13176" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,6 @@
     <t>Document opens but author's name is visible (0.7)</t>
   </si>
   <si>
-    <t>Few error of grammar and usage; any minor errors do not interfere with meaning.  Language style and word choice are highly effective and enhance meaning.  Style and word choice are appropriate for the assignment. (1)</t>
-  </si>
-  <si>
-    <t>Some erros of grammar and usage; errors do not interfere with meaning.  Language style and word choice are for the most part effective and appropriate for the assignment. (0.7)</t>
-  </si>
-  <si>
     <t>Major errors of grammar and usage make meaning unclear.  Language style and word choice are ineffective and/or inappropriate. (0.1)</t>
   </si>
   <si>
@@ -67,13 +61,19 @@
   </si>
   <si>
     <t>fewer than two sources that are less than 10 years old --- references are not automatically generated from a Zotero BibTeX file (0.1)</t>
+  </si>
+  <si>
+    <t>Few errors of grammar and usage; any minor errors do not interfere with meaning.  Language style and word choice are highly effective and enhance meaning.  Style and word choice are appropriate for the assignment. (1)</t>
+  </si>
+  <si>
+    <t>Some errors of grammar and usage; errors do not interfere with meaning.  Language style and word choice are for the most part effective and appropriate for the assignment. (0.7)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,6 +168,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -495,31 +500,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" customWidth="1"/>
-    <col min="2" max="2" width="41.83203125" customWidth="1"/>
-    <col min="3" max="3" width="50.1640625" customWidth="1"/>
+    <col min="1" max="1" width="36.19921875" customWidth="1"/>
+    <col min="2" max="2" width="41.796875" customWidth="1"/>
+    <col min="3" max="3" width="50.19921875" customWidth="1"/>
     <col min="4" max="4" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20">
+    <row r="1" spans="1:4" ht="21">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="60">
+    </row>
+    <row r="2" spans="1:4" ht="63">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -530,64 +535,64 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="140">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="147">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="80">
+    </row>
+    <row r="4" spans="1:4" ht="84">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20">
+    </row>
+    <row r="5" spans="1:4" ht="21">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="20">
+    <row r="6" spans="1:4" ht="21">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="20">
+    <row r="7" spans="1:4" ht="21">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="20">
+    <row r="8" spans="1:4" ht="21">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="248">
+    <row r="9" spans="1:4" ht="265.8">
       <c r="A9" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
